--- a/抢课模板.xlsx
+++ b/抢课模板.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>教学班名称</t>
   </si>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +542,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
